--- a/creatXlresult.xlsx
+++ b/creatXlresult.xlsx
@@ -1,32 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23902"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB715EF9-EBF1-4E6C-BDB2-EC0C9E171F18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\API_gestion_championnat_ski\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3E3B3C1-DDC6-488B-A7E1-5510D4EF6ACA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2370" yWindow="2595" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>id_participants</t>
   </si>
@@ -61,7 +55,7 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Génique</t>
+    <t>toi</t>
   </si>
   <si>
     <t>Yoann</t>
@@ -73,19 +67,10 @@
     <t>2021-02-27</t>
   </si>
   <si>
-    <t>56.6</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
-    <t>Mairot</t>
-  </si>
-  <si>
-    <t>Jean-christophe</t>
-  </si>
-  <si>
-    <t>57.2</t>
+    <t>moi</t>
   </si>
   <si>
     <t>Cherief</t>
@@ -94,47 +79,23 @@
     <t>Saufiane</t>
   </si>
   <si>
-    <t>54.3</t>
-  </si>
-  <si>
     <t>Rameau</t>
   </si>
   <si>
-    <t>Célia</t>
-  </si>
-  <si>
-    <t>51.3</t>
+    <t>elle</t>
   </si>
   <si>
     <t>Ligourel</t>
   </si>
   <si>
-    <t>Teedji</t>
-  </si>
-  <si>
-    <t>52.2</t>
-  </si>
-  <si>
-    <t>toto</t>
-  </si>
-  <si>
-    <t>tata</t>
-  </si>
-  <si>
-    <t>51.326</t>
-  </si>
-  <si>
-    <t>choula</t>
-  </si>
-  <si>
-    <t>poula</t>
+    <t>lui</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -467,15 +428,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -530,30 +491,30 @@
         <v>14</v>
       </c>
       <c r="G2">
-        <v>45</v>
-      </c>
-      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>26</v>
+      </c>
+      <c r="I2">
+        <v>25</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
         <v>15</v>
       </c>
-      <c r="I2">
-        <v>45</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -565,30 +526,30 @@
         <v>14</v>
       </c>
       <c r="G3">
-        <v>54</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>2588</v>
       </c>
       <c r="I3">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -600,30 +561,30 @@
         <v>14</v>
       </c>
       <c r="G4">
-        <v>65</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="H4">
+        <v>722</v>
+      </c>
+      <c r="I4">
+        <v>11</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -635,30 +596,30 @@
         <v>14</v>
       </c>
       <c r="G5">
-        <v>54</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -670,89 +631,19 @@
         <v>14</v>
       </c>
       <c r="G6">
-        <v>53</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7">
-        <v>58</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8">
-        <v>69</v>
-      </c>
-      <c r="H8">
-        <v>58</v>
-      </c>
-      <c r="I8">
-        <v>58</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
